--- a/biology/Médecine/Parasitologie_médicale/Parasitologie_médicale.xlsx
+++ b/biology/Médecine/Parasitologie_médicale/Parasitologie_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parasitologie_m%C3%A9dicale</t>
+          <t>Parasitologie_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La parasitologie médicale est une branche de la médecine, plus spécifiquement de la biologie médicale, visant à isoler et caractériser les parasites pathogènes de l'homme[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La parasitologie médicale est une branche de la médecine, plus spécifiquement de la biologie médicale, visant à isoler et caractériser les parasites pathogènes de l'homme.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parasitologie_m%C3%A9dicale</t>
+          <t>Parasitologie_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,130 @@
           <t>Liste des différentes parasitoses humaines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>On distingue deux grands embranchements des parasites ; les Protozoaires d'une part et les Métazoaires d'autre part.
-Protozoaires
-On distingue quatre classes:
-Classe des Rhizopodes intestinaux (Amibes)
-Amibiase dysentérique
-Méningo-encéphalite amibienne
-Classe des Flagellés
-Cellules présentant un ou plusieurs flagelles. Cette classe comprend quatre genres :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue deux grands embranchements des parasites ; les Protozoaires d'une part et les Métazoaires d'autre part.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des différentes parasitoses humaines</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Protozoaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue quatre classes:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des différentes parasitoses humaines</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Protozoaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Classe des Rhizopodes intestinaux (Amibes)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amibiase dysentérique
+Méningo-encéphalite amibienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des différentes parasitoses humaines</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Protozoaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Classe des Flagellés</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cellules présentant un ou plusieurs flagelles. Cette classe comprend quatre genres :
 Flagellés urogénitaux
 Trichomonose urogénitale
 Flagellés intestinaux
@@ -534,16 +660,129 @@
 Trichomonas tenax
 Chilomastix mesnili
 Enteromonas hominis
-Retortamonas intestinalis
-Classe des Sporozoaires
-Malaria
+Retortamonas intestinalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des différentes parasitoses humaines</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protozoaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Classe des Sporozoaires</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Malaria
 Toxoplasmose
-Coccidiose intestinale
-Classe des Ciliés
-Balantidose
-Métazoaires
-Helminthes (vers)
-Plathelminthes (vers plats, non chitineux)
+Coccidiose intestinale</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des différentes parasitoses humaines</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protozoaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Classe des Ciliés</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Balantidose</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des différentes parasitoses humaines</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Métazoaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Helminthes (vers)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Plathelminthes (vers plats, non chitineux)
 Trématodes (non segmentés)
 Douves
 Distomatose intestinale du Sud-Est asiatique
@@ -593,18 +832,93 @@
 Syndromes larva migrans
 Toxocarose humaine
 Méningite angiostrongylienne à éosinophiles
-Dermatite linéaire rampante
-Arthropodes
-Arachnides
-Gale
+Dermatite linéaire rampante</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des différentes parasitoses humaines</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Arthropodes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Arachnides</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Gale
 Fièvre récurrente mondiale
 Fièvre pourprée des Montagnes Rocheuses
 Fièvre boutonneuse méditerranéenne
 Tularémie
 Erythème automnal
-Fièvre fluviale du Japon
-Insectes parasites ou vecteurs de parasites
-Pou du pubis ou morpion
+Fièvre fluviale du Japon</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des différentes parasitoses humaines</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Arthropodes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Insectes parasites ou vecteurs de parasites</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pou du pubis ou morpion
 Pédiculoses du cuir chevelu et du corps
 Typhus exanthématique
 Récurrente à poux
@@ -618,51 +932,203 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Parasitologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Exemples de traitement des infections parasitaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Anti-amibiens
-Métronidazole
-Anti-helminthiques intestinaux
-Nématocides
-Flubendazole
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Anti-amibiens</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Métronidazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exemples de traitement des infections parasitaires</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Anti-helminthiques intestinaux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nématocides</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Flubendazole
 Albendazole
 Mébendazole
 Pipérazine
 Pyrantel
-Pyrvinium embonate
-Trématocides
-Praziquantel
-Triclabendazole
-Cestocides
-Niclosamide
+Pyrvinium embonate</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exemples de traitement des infections parasitaires</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Anti-helminthiques intestinaux</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Trématocides</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Praziquantel
+Triclabendazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exemples de traitement des infections parasitaires</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Anti-helminthiques intestinaux</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cestocides</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Niclosamide
 Albendazole
-Praziquantel
-Antimalariques
-Quinine
+Praziquantel</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exemples de traitement des infections parasitaires</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Antimalariques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Quinine
 Méfloquine
 Chloroquine
 Proguanil
@@ -674,31 +1140,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Parasitologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Parasitologie_médicale</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasitologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Exemples de tests et analyses réalisés au laboratoire de parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Technique de Baermann
 Coloration au M.I.F
